--- a/Copy.xlsx
+++ b/Copy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Software apps for bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Software apps for bus\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
   <si>
     <t xml:space="preserve">Customer Details </t>
   </si>
@@ -334,9 +334,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Prefered method of contact</t>
-  </si>
-  <si>
     <t>SthsdeTV&amp;elec@gmail.com</t>
   </si>
   <si>
@@ -365,6 +362,48 @@
   </si>
   <si>
     <t>Post</t>
+  </si>
+  <si>
+    <t>Preferred method of payment</t>
+  </si>
+  <si>
+    <t>Preferred method of contact</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Preferred date of payment</t>
+  </si>
+  <si>
+    <t>End month</t>
+  </si>
+  <si>
+    <t>Start month</t>
+  </si>
+  <si>
+    <t>Eir@gmail.com</t>
+  </si>
+  <si>
+    <t>ESB@gmail.com</t>
+  </si>
+  <si>
+    <t>D2 House@gmail.com</t>
+  </si>
+  <si>
+    <t>SamsungLtd@gmail.com</t>
+  </si>
+  <si>
+    <t>PhilipsLtd@gmail.com</t>
+  </si>
+  <si>
+    <t>Preferred method of  contact</t>
   </si>
 </sst>
 </file>
@@ -417,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -431,6 +470,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -774,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M11"/>
+  <dimension ref="A2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,9 +833,10 @@
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.42578125" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -804,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -842,10 +885,13 @@
         <v>101</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -877,13 +923,16 @@
         <v>30</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="N4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -912,13 +961,16 @@
         <v>30</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -950,13 +1002,16 @@
         <v>30</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -985,13 +1040,16 @@
         <v>30</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1020,13 +1078,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1055,13 +1116,16 @@
         <v>30</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1096,13 +1160,16 @@
         <v>30</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1134,10 +1201,13 @@
         <v>30</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s">
         <v>101</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1158,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,9 +1242,12 @@
     <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1187,7 +1260,10 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1215,8 +1291,17 @@
       <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1244,8 +1329,17 @@
       <c r="I5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1267,8 +1361,17 @@
       <c r="I6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
@@ -1296,8 +1399,17 @@
       <c r="I7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>74</v>
       </c>
@@ -1325,8 +1437,17 @@
       <c r="I8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>79</v>
       </c>
@@ -1354,8 +1475,26 @@
       <c r="I9">
         <v>60</v>
       </c>
+      <c r="J9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J6" r:id="rId2"/>
+    <hyperlink ref="J8" r:id="rId3"/>
+    <hyperlink ref="J9" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Copy.xlsx
+++ b/Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,6 @@
     <t>Card</t>
   </si>
   <si>
-    <t>Check</t>
-  </si>
-  <si>
     <t>Preferred date of payment</t>
   </si>
   <si>
@@ -404,6 +401,9 @@
   </si>
   <si>
     <t>Preferred method of  contact</t>
+  </si>
+  <si>
+    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>101</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>110</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>110</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -1295,10 +1295,10 @@
         <v>101</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1330,10 +1330,10 @@
         <v>60</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M5" t="s">
         <v>111</v>
@@ -1362,10 +1362,10 @@
         <v>60</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s">
         <v>101</v>
@@ -1400,10 +1400,10 @@
         <v>60</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s">
         <v>110</v>
@@ -1438,10 +1438,10 @@
         <v>60</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s">
         <v>111</v>
@@ -1476,10 +1476,10 @@
         <v>60</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s">
         <v>101</v>
